--- a/config_6.29/act_027_qyzl_config.xlsx
+++ b/config_6.29/act_027_qyzl_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
     <t>btn_gotoui|跳转</t>
   </si>
   <si>
-    <t>p_hljnh_046_hlfl_cjj</t>
+    <t>actp_own_task_p_hljnh_046_hlfl_cjj</t>
   </si>
   <si>
     <t>game_MiniGame</t>
@@ -262,8 +262,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -313,6 +313,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -320,6 +357,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -327,15 +388,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,92 +437,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -444,7 +444,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,7 +465,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,25 +555,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,151 +633,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,17 +680,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,15 +713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -752,6 +737,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -770,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,137 +782,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,7 +929,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,9 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1361,7 +1358,7 @@
       <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" ht="15.75" spans="1:9">
       <c r="A3" s="1">
@@ -1373,16 +1370,16 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" ht="15.75" spans="1:9">
       <c r="A4" s="1">
@@ -1394,16 +1391,16 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" ht="15.75" spans="1:9">
       <c r="A5" s="1">
@@ -1415,7 +1412,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1424,7 +1421,7 @@
       <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" ht="15.75" spans="1:9">
       <c r="A6" s="1">
@@ -1436,7 +1433,7 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1445,7 +1442,7 @@
       <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" ht="15.75" spans="1:9">
       <c r="A7" s="1">
@@ -1457,16 +1454,16 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" ht="15.75" spans="1:9">
       <c r="A8" s="1">
@@ -1478,7 +1475,7 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1487,7 +1484,7 @@
       <c r="F8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" ht="15.75" spans="1:9">
       <c r="A9" s="1">
@@ -1499,7 +1496,7 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1508,7 +1505,7 @@
       <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" ht="15.75" spans="1:9">
       <c r="A10" s="1">
@@ -1520,7 +1517,7 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1529,7 +1526,7 @@
       <c r="F10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" ht="15.75" spans="1:9">
       <c r="A11" s="1">
@@ -1541,7 +1538,7 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1550,7 +1547,7 @@
       <c r="F11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" ht="15.75" spans="1:9">
       <c r="A12" s="1">
@@ -1562,7 +1559,7 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1571,7 +1568,7 @@
       <c r="F12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" ht="15.75" spans="1:9">
       <c r="A13" s="1">
@@ -1583,7 +1580,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1592,7 +1589,7 @@
       <c r="F13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" ht="15.75" spans="1:9">
       <c r="A14" s="1">
@@ -1604,7 +1601,7 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1613,7 +1610,7 @@
       <c r="F14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" ht="15.75" spans="1:9">
       <c r="A15" s="1">
@@ -1625,7 +1622,7 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1634,7 +1631,7 @@
       <c r="F15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" ht="15.75" spans="1:9">
       <c r="A16" s="1">
@@ -1646,7 +1643,7 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1655,7 +1652,7 @@
       <c r="F16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" ht="15.75" spans="1:9">
       <c r="A17" s="1">
@@ -1667,7 +1664,7 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1676,7 +1673,7 @@
       <c r="F17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" ht="15.75" spans="1:9">
       <c r="A18" s="1">
@@ -1688,16 +1685,16 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" ht="15.75" spans="1:9">
       <c r="A19" s="1">
@@ -1709,16 +1706,16 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" ht="15.75" spans="1:9">
       <c r="A20" s="1">
@@ -1730,16 +1727,16 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" ht="15.75" spans="1:9">
       <c r="A21" s="1">
@@ -1751,16 +1748,16 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" ht="15.75" spans="1:9">
       <c r="A22" s="1">
@@ -1772,16 +1769,16 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" ht="15.75" spans="1:9">
       <c r="A23" s="1">
@@ -1793,106 +1790,106 @@
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" ht="15.75" spans="1:9">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="9"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" ht="15.75" spans="1:9">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="9"/>
-      <c r="I25" s="13"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" ht="15.75" spans="1:9">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="9"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" ht="15.75" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="9"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" ht="15.75" spans="1:9">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="9"/>
-      <c r="I28" s="13"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" ht="15.75" spans="1:9">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="9"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" ht="15.75" spans="1:9">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="9"/>
-      <c r="I30" s="13"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" ht="15.75" spans="1:9">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="9"/>
-      <c r="I31" s="13"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" ht="15.75" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="9"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" ht="15.75" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="9"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1906,8 +1903,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1990,7 +1987,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
